--- a/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
+++ b/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Matching" sheetId="16" r:id="rId15"/>
     <sheet name="True_False" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
   <si>
     <t>Correct</t>
   </si>
@@ -221,6 +221,78 @@
   </si>
   <si>
     <t>Depends on your gender identity</t>
+  </si>
+  <si>
+    <t>Look at the signal shown above.   What is the approximate time period of the signal? (to the nearest ms)</t>
+  </si>
+  <si>
+    <t>One time period is the time it takes to do a single oscillation</t>
+  </si>
+  <si>
+    <t>Look at the signal shown above.   What is the approximate frequency of the signal?</t>
+  </si>
+  <si>
+    <t>Remember that the units of time are milliseconds</t>
+  </si>
+  <si>
+    <t>The units of frequency are Hz (or "per second")</t>
+  </si>
+  <si>
+    <t>Which of the following terms accurately describe the signal shown above? Submit all that are true.</t>
+  </si>
+  <si>
+    <t>Stochastic</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>Deterministic</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>This signal has a clear repeating pattern, so it is not stochastic--that is, there is no randomness apparent in the signal.</t>
+  </si>
+  <si>
+    <t>This signal is continuous--there is an amplitude value assigned for every possible time value.</t>
+  </si>
+  <si>
+    <t>Discrete is the opposite of continous, and so it is not discrete.  A discrete signal would have time values at which an amplitude was not defined.</t>
+  </si>
+  <si>
+    <t>It is deterministic, as it has a clear repeating pattern.</t>
+  </si>
+  <si>
+    <t>A dynamic signal is one that changes with time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A complex signal is one that is built of multiple simple sinusoidal signals, as this one is.  </t>
+  </si>
+  <si>
+    <t>Look at the wave above.  It is a complex wave: that is, it is built by summing simple sinusoidal wave.   What are the approximate time period of the three waves that constitute this wave?  Look for the patterns of repeating peaks.</t>
+  </si>
+  <si>
+    <t>6 ms, 1.5 ms, and 0.5 s</t>
+  </si>
+  <si>
+    <t>18 ms, 6 ms, and 1 s</t>
+  </si>
+  <si>
+    <t>6 ms, 0.5 ms, and 0.05 ms</t>
+  </si>
+  <si>
+    <t>12 ms, 1 ms, and 0.1 ms</t>
+  </si>
+  <si>
+    <t>There are patterns in the wave.  The largest time period (6 ms) determines the overall frequency of the wave.  The two smaller constituent waves lead to more frequent peaks.  In this case, the higher frequency waves also have lower amplitudes.</t>
   </si>
 </sst>
 </file>
@@ -601,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,30 +685,42 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,7 +924,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +1011,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,8 +1262,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1188,19 +1274,27 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2">
+        <v>167</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1214,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,8 +1322,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1237,25 +1333,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1267,7 +1409,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,8 +1420,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1287,24 +1431,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
   </sheetData>

--- a/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
+++ b/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="1"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>Correct</t>
   </si>
@@ -293,6 +293,69 @@
   </si>
   <si>
     <t>There are patterns in the wave.  The largest time period (6 ms) determines the overall frequency of the wave.  The two smaller constituent waves lead to more frequent peaks.  In this case, the higher frequency waves also have lower amplitudes.</t>
+  </si>
+  <si>
+    <t>Sampling Count</t>
+  </si>
+  <si>
+    <t>Sampling Rate</t>
+  </si>
+  <si>
+    <t>Time interval</t>
+  </si>
+  <si>
+    <t>Maximum input frequency</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>You are attempting to measure rate at which a hummingbird flaps its wings by taking a video and then counting the flaps.    Your camera takes 1000 images every second, and the bird flaps its wings about 200 times per second.  You take a 4 second video.  Match the sampling vocab to the correct value.</t>
+  </si>
+  <si>
+    <t>Match the following sampling terms to their correct unit.</t>
+  </si>
+  <si>
+    <t>Unitless</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>Volts</t>
+  </si>
+  <si>
+    <t>This is the total number of data points: as a "counting number", it is unitless.</t>
+  </si>
+  <si>
+    <t>A "rate" is by definition some thing per unit time; this is a unitless "count" per second.</t>
+  </si>
+  <si>
+    <t>This is the time between samples</t>
+  </si>
+  <si>
+    <t>This is rate of a cycle of change of the thing you are trying to measure.</t>
+  </si>
+  <si>
+    <t>You are attempting to measure rate at which a hummingbird flaps its wings by taking a video and then counting the flaps.    Your camera takes 1000 images every second, and the bird flaps its wings about 200 times per second.  True or False: this sampling rate is sufficient to capture the maximum input frequency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To capture the frequency, the sampling rate needs to be at least 2x as big as the input frequency.   Here it is 5x as big (1000/200).  To capture more information than just the frequency (the shape of the signal wave, for instance), the sampling rate needs to be even higher.  </t>
+  </si>
+  <si>
+    <t>For modern equipment, which is more likely to be a significant problem?</t>
+  </si>
+  <si>
+    <t>Quantization error</t>
+  </si>
+  <si>
+    <t>Saturation error</t>
+  </si>
+  <si>
+    <t>They can both usually be ignored</t>
+  </si>
+  <si>
+    <t>They are both significant sources of error</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1136,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1472,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,10 +1539,219 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>800</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,10 +1771,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1524,12 +1802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,8 +1818,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1550,136 +1830,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>

--- a/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
+++ b/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
   <si>
     <t>Correct</t>
   </si>
@@ -356,6 +356,48 @@
   </si>
   <si>
     <t>They are both significant sources of error</t>
+  </si>
+  <si>
+    <t>If your data is saturated, the data must be discarded.  This is because it is meaningless: since the input is outside of the range of the sensor, the output basically indicates that the sensor cannot measure the data as it is currently set up.</t>
+  </si>
+  <si>
+    <t>Look at the wave above.  What would be the best estimate of the DC component of the wave?</t>
+  </si>
+  <si>
+    <t>Look at the wave above.  Remembering how similar the root-mean-square equation is to the standard deviation equation, what is the best estimate of the RMS of the wave?</t>
+  </si>
+  <si>
+    <t>The DC component is equal to the average value of all the points.  "DC" stands for "direct current", which has a constant current, so here that represents the constant middle ground of the wave.</t>
+  </si>
+  <si>
+    <t>Like with standard deviation, the RMS tells you a range in which most, but not all, of the data points fall.   So most of the points in this wave are within 4 units of the DC amplitude (7.5).</t>
+  </si>
+  <si>
+    <t>Which of the statements about AC and DC components of a signal are true?</t>
+  </si>
+  <si>
+    <t>A signal is the sum of the DC component and the AC component</t>
+  </si>
+  <si>
+    <t>A signal is either a DC signal or an AC signal</t>
+  </si>
+  <si>
+    <t>If you removed the DC component from a signal, it would oscillate around zero</t>
+  </si>
+  <si>
+    <t>If you removed the AC component of a signal, its average value would be zero</t>
+  </si>
+  <si>
+    <t>We can separate a signal into an average value (DC component), which is constant, and a time-variant component (AC component)</t>
+  </si>
+  <si>
+    <t>These are two parts of signal, not different kinds of signals</t>
+  </si>
+  <si>
+    <t>Sometimes we are only interested in the changing part of the signal, and analysis can be easier if we remove the DC component so the average signal value is zero</t>
+  </si>
+  <si>
+    <t>If you removed the AC component, the signal would have a constant value, which would be equal to the DC component.</t>
   </si>
 </sst>
 </file>
@@ -792,10 +834,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,8 +848,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -816,32 +860,51 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>2.5</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -850,56 +913,80 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1806,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,14 +1925,16 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1872,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:XFD1048576"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,8 +1975,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1896,32 +1987,51 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>2.5</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>7.5</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
+++ b/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="123">
   <si>
     <t>Correct</t>
   </si>
@@ -398,6 +398,27 @@
   </si>
   <si>
     <t>If you removed the AC component, the signal would have a constant value, which would be equal to the DC component.</t>
+  </si>
+  <si>
+    <t>'4000'</t>
+  </si>
+  <si>
+    <t>'0.005'</t>
+  </si>
+  <si>
+    <t>'1000'</t>
+  </si>
+  <si>
+    <t>'200'</t>
+  </si>
+  <si>
+    <t>'4'</t>
+  </si>
+  <si>
+    <t>'800'</t>
+  </si>
+  <si>
+    <t>'0.001'</t>
   </si>
 </sst>
 </file>
@@ -451,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -462,6 +483,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1730,7 +1755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1759,8 +1786,8 @@
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2">
-        <v>1000</v>
+      <c r="C2" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -1773,8 +1800,8 @@
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2">
-        <v>200</v>
+      <c r="C3" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -1785,8 +1812,8 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
-        <v>4</v>
+      <c r="C4" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1799,32 +1826,32 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
-        <v>800</v>
+      <c r="C5" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>1E-3</v>
+      <c r="C6" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <v>4000</v>
+      <c r="C7" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="C8" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="D8" s="4"/>
     </row>

--- a/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
+++ b/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="128">
   <si>
     <t>Correct</t>
   </si>
@@ -419,6 +419,21 @@
   </si>
   <si>
     <t>'0.001'</t>
+  </si>
+  <si>
+    <t>'2.5'</t>
+  </si>
+  <si>
+    <t>'5'</t>
+  </si>
+  <si>
+    <t>'7.5'</t>
+  </si>
+  <si>
+    <t>'10'</t>
+  </si>
+  <si>
+    <t>'12.5'</t>
   </si>
 </sst>
 </file>
@@ -862,7 +877,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,8 +900,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2.5</v>
+      <c r="A2" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -894,8 +909,8 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>4</v>
+      <c r="A3" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -905,8 +920,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>5</v>
+      <c r="A4" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -914,8 +929,8 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>10</v>
+      <c r="A5" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -923,8 +938,8 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>12.5</v>
+      <c r="A6" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -940,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1991,7 +2006,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,8 +2029,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2.5</v>
+      <c r="A2" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2023,8 +2038,8 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>5</v>
+      <c r="A3" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -2032,8 +2047,8 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>7.5</v>
+      <c r="A4" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -2043,8 +2058,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>10</v>
+      <c r="A5" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -2052,8 +2067,8 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>12.5</v>
+      <c r="A6" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>

--- a/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
+++ b/2_Signals/Embedded_Qs/2_1_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
   <si>
     <t>Correct</t>
   </si>
@@ -877,7 +877,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +910,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -953,78 +953,73 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1770,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1804,9 +1799,7 @@
       <c r="C2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1830,9 +1823,7 @@
       <c r="C4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2006,7 +1997,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
